--- a/biology/Zoologie/Eresus_kollari_ignicomis/Eresus_kollari_ignicomis.xlsx
+++ b/biology/Zoologie/Eresus_kollari_ignicomis/Eresus_kollari_ignicomis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Eresus kollari ignicomis est une espèce d'araignées aranéomorphes de la famille des Eresidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eresus kollari ignicomis est une espèce d'araignées aranéomorphes de la famille des Eresidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette sous-espèce est endémique de France[1]. Elle est essentiellement présente en Corse[2]. En 2014, elle a été signalée sur l'île de Bagaud, réserve intégrale du parc national de Port-Cros[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette sous-espèce est endémique de France. Elle est essentiellement présente en Corse. En 2014, elle a été signalée sur l'île de Bagaud, réserve intégrale du parc national de Port-Cros.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle se cache sous les grosses pierres des plateaux calcaires du Sud de la Corse[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle se cache sous les grosses pierres des plateaux calcaires du Sud de la Corse.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette sous-espèce se distingue des femelles des autres sous-espèces d'Eresus kollari par son céphalothorax et son abdomen parsemés de poils rouges. La base des chélicères (jusqu'au tiers apical) sont garnis de poils d'un rouge-orangé épais et très denses. Ses pattes sont noires avec de petites touffes rouges à l'extrémité des fémurs, des tibias et des métatarses antérieurs. Les traces d'une ligne rouge sont visibles sur les tibias[4]. Son prosome mesure 10,5 mm de longueur et 7 mm de large[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette sous-espèce se distingue des femelles des autres sous-espèces d'Eresus kollari par son céphalothorax et son abdomen parsemés de poils rouges. La base des chélicères (jusqu'au tiers apical) sont garnis de poils d'un rouge-orangé épais et très denses. Ses pattes sont noires avec de petites touffes rouges à l'extrémité des fémurs, des tibias et des métatarses antérieurs. Les traces d'une ligne rouge sont visibles sur les tibias. Son prosome mesure 10,5 mm de longueur et 7 mm de large.
 Le mâle n'a pas été décrit.
 </t>
         </is>
@@ -605,10 +623,12 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette sous-espèce a été décrite par Simon en 1914. L'épithète ignicomus fut utilisé à tort à la place d'ignicomis[6].
-Elle a été considérée comme sous-espèce d'Eresus niger (Canestrini &amp; Pavesi, 1868) puis d'Eresus cinnaberinus (Olivier, 1789)[7].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette sous-espèce a été décrite par Simon en 1914. L'épithète ignicomus fut utilisé à tort à la place d'ignicomis.
+Elle a été considérée comme sous-espèce d'Eresus niger (Canestrini &amp; Pavesi, 1868) puis d'Eresus cinnaberinus (Olivier, 1789).
 </t>
         </is>
       </c>
@@ -637,7 +657,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Simon, 1914 : Les arachnides de France. Synopsis générale et catalogue des espèces françaises de l'ordre des Araneae; 1re partie. Paris, vol. 6, p. 1-308.</t>
         </is>
